--- a/Base/Teams/Jaguars/Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="D3">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="C3">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="D3">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="E3">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Jaguars/Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/Target Depth Data.xlsx
@@ -450,22 +450,22 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="C3">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D3">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>396</v>
+        <v>424</v>
       </c>
       <c r="C3">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="D3">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Jaguars/Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>277</v>
+        <v>309</v>
       </c>
       <c r="C2">
-        <v>189</v>
+        <v>209</v>
       </c>
       <c r="D2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="E2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,19 +506,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="C2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="D2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="E2">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2">
         <v>5</v>

--- a/Base/Teams/Jaguars/Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/Target Depth Data.xlsx
@@ -450,16 +450,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="C3">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="D3">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="D3">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Jaguars/Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/Target Depth Data.xlsx
@@ -450,19 +450,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>327</v>
+        <v>349</v>
       </c>
       <c r="C3">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="D3">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -529,16 +529,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>444</v>
+        <v>473</v>
       </c>
       <c r="C3">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>4</v>

--- a/Base/Teams/Jaguars/Target Depth Data.xlsx
+++ b/Base/Teams/Jaguars/Target Depth Data.xlsx
@@ -427,16 +427,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="C2">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="D2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F2">
         <v>4</v>
@@ -506,22 +506,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>365</v>
+        <v>388</v>
       </c>
       <c r="C2">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="D2">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E2">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F2">
         <v>6</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7">
